--- a/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
@@ -770,19 +770,19 @@
         <v>260838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236018</v>
+        <v>239760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284399</v>
+        <v>283927</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4885998935007312</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4421068505946877</v>
+        <v>0.4491165767894864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5327331450292921</v>
+        <v>0.5318502521549767</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>273010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>249449</v>
+        <v>249921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297830</v>
+        <v>294088</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5114001064992687</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4672668549707079</v>
+        <v>0.4681497478450232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5578931494053122</v>
+        <v>0.5508834232105135</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>503949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>473457</v>
+        <v>472250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>536576</v>
+        <v>535257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5054532029860429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4748702039236972</v>
+        <v>0.4736601114587547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5381772643438346</v>
+        <v>0.5368545956449084</v>
       </c>
     </row>
     <row r="8">
@@ -1010,19 +1010,19 @@
         <v>493075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>460448</v>
+        <v>461767</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>523567</v>
+        <v>524774</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.494546797013957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4618227356561653</v>
+        <v>0.4631454043550916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5251297960763027</v>
+        <v>0.5263398885412452</v>
       </c>
     </row>
     <row r="9">
@@ -1140,19 +1140,19 @@
         <v>335412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309792</v>
+        <v>307512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>359496</v>
+        <v>358186</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5126602140119437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4735008471681848</v>
+        <v>0.4700166868834385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5494711929097146</v>
+        <v>0.5474690310329905</v>
       </c>
     </row>
     <row r="11">
@@ -1195,19 +1195,19 @@
         <v>318846</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>294762</v>
+        <v>296072</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>344466</v>
+        <v>346746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4873397859880562</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.450528807090285</v>
+        <v>0.4525309689670096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5264991528318153</v>
+        <v>0.5299833131165617</v>
       </c>
     </row>
     <row r="12">
@@ -1325,19 +1325,19 @@
         <v>371456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>344876</v>
+        <v>344165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>397867</v>
+        <v>396835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.508755224561433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4723508408426536</v>
+        <v>0.4713771284933959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5449280813639285</v>
+        <v>0.5435144471663024</v>
       </c>
     </row>
     <row r="14">
@@ -1380,19 +1380,19 @@
         <v>358671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>332260</v>
+        <v>333292</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>385251</v>
+        <v>385962</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.491244775438567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4550719186360715</v>
+        <v>0.4564855528336972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5276491591573463</v>
+        <v>0.5286228715066038</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>207668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>186815</v>
+        <v>187757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229515</v>
+        <v>227263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5053043894463498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4545636782317047</v>
+        <v>0.4568556576662178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5584636011108849</v>
+        <v>0.5529840547560919</v>
       </c>
     </row>
     <row r="17">
@@ -1565,19 +1565,19 @@
         <v>203308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>181461</v>
+        <v>183713</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>224161</v>
+        <v>223219</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4946956105536502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4415363988891149</v>
+        <v>0.447015945243908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5454363217682952</v>
+        <v>0.5431443423337822</v>
       </c>
     </row>
     <row r="18">
@@ -1695,19 +1695,19 @@
         <v>278144</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255136</v>
+        <v>256069</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>300666</v>
+        <v>299953</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5066790501489901</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4647675220004302</v>
+        <v>0.4664668508510689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5477055116333389</v>
+        <v>0.5464079224686966</v>
       </c>
     </row>
     <row r="20">
@@ -1750,19 +1750,19 @@
         <v>270811</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248289</v>
+        <v>249002</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>293819</v>
+        <v>292886</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4933209498510099</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4522944883666611</v>
+        <v>0.4535920775313036</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5352324779995699</v>
+        <v>0.5335331491489312</v>
       </c>
     </row>
     <row r="21">
@@ -1880,19 +1880,19 @@
         <v>638219</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>601806</v>
+        <v>604450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>671775</v>
+        <v>670691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5092527858339482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4801978936723429</v>
+        <v>0.4823075779523385</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5360277253601604</v>
+        <v>0.535163141047484</v>
       </c>
     </row>
     <row r="23">
@@ -1935,19 +1935,19 @@
         <v>615027</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>581471</v>
+        <v>582555</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>651440</v>
+        <v>648796</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4907472141660519</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4639722746398396</v>
+        <v>0.464836858952516</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5198021063276569</v>
+        <v>0.5176924220476613</v>
       </c>
     </row>
     <row r="24">
@@ -2065,19 +2065,19 @@
         <v>783511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>741299</v>
+        <v>746984</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>822025</v>
+        <v>823583</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5130019645879403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4853634769046756</v>
+        <v>0.4890859202947063</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5382188987896867</v>
+        <v>0.5392392007570569</v>
       </c>
     </row>
     <row r="26">
@@ -2120,19 +2120,19 @@
         <v>743795</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>705281</v>
+        <v>703723</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>786007</v>
+        <v>780322</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4869980354120596</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4617811012103136</v>
+        <v>0.4607607992429431</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5146365230953247</v>
+        <v>0.5109140797052937</v>
       </c>
     </row>
     <row r="27">
@@ -2250,19 +2250,19 @@
         <v>3379197</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3297677</v>
+        <v>3299665</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3459542</v>
+        <v>3457626</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5077116877680198</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4954635155670608</v>
+        <v>0.4957622900323103</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5197831532487917</v>
+        <v>0.5194952187577856</v>
       </c>
     </row>
     <row r="29">
@@ -2305,19 +2305,19 @@
         <v>3276544</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3196199</v>
+        <v>3198115</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3358064</v>
+        <v>3356076</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4922883122319802</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4802168467512084</v>
+        <v>0.4805047812422146</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5045364844329393</v>
+        <v>0.5042377099676898</v>
       </c>
     </row>
     <row r="30">
@@ -2679,19 +2679,19 @@
         <v>287245</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>263426</v>
+        <v>260541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>314163</v>
+        <v>310927</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4935625009017303</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4526358543981071</v>
+        <v>0.4476775187305647</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5398151517491873</v>
+        <v>0.5342550913287842</v>
       </c>
     </row>
     <row r="5">
@@ -2734,19 +2734,19 @@
         <v>294738</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>267820</v>
+        <v>271056</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>318557</v>
+        <v>321442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5064374990982697</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4601848482508126</v>
+        <v>0.4657449086712157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5473641456018929</v>
+        <v>0.5523224812694353</v>
       </c>
     </row>
     <row r="6">
@@ -2864,19 +2864,19 @@
         <v>523765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>489691</v>
+        <v>490712</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>554762</v>
+        <v>556211</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5088593629397605</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4757554997073496</v>
+        <v>0.4767471145662303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5389742858629483</v>
+        <v>0.5403822167582828</v>
       </c>
     </row>
     <row r="8">
@@ -2919,19 +2919,19 @@
         <v>505527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>474530</v>
+        <v>473081</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>539601</v>
+        <v>538580</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4911406370602395</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4610257141370517</v>
+        <v>0.4596177832417172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5242445002926506</v>
+        <v>0.5232528854337699</v>
       </c>
     </row>
     <row r="9">
@@ -3049,19 +3049,19 @@
         <v>341020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>313073</v>
+        <v>314822</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>365542</v>
+        <v>365691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5127611448739104</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4707393383703448</v>
+        <v>0.4733698390884839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5496319850910908</v>
+        <v>0.5498574217491765</v>
       </c>
     </row>
     <row r="11">
@@ -3104,19 +3104,19 @@
         <v>324046</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299524</v>
+        <v>299375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351993</v>
+        <v>350244</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4872388551260896</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4503680149089092</v>
+        <v>0.4501425782508234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5292606616296552</v>
+        <v>0.526630160911516</v>
       </c>
     </row>
     <row r="12">
@@ -3234,19 +3234,19 @@
         <v>388951</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>361530</v>
+        <v>359148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>420457</v>
+        <v>416777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5098100873780304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4738682612489018</v>
+        <v>0.4707466958739076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5511057263661018</v>
+        <v>0.5462820604722491</v>
       </c>
     </row>
     <row r="14">
@@ -3289,19 +3289,19 @@
         <v>373982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342476</v>
+        <v>346156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>401403</v>
+        <v>403785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4901899126219696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4488942736338982</v>
+        <v>0.4537179395277507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5261317387510982</v>
+        <v>0.5292533041260924</v>
       </c>
     </row>
     <row r="15">
@@ -3419,19 +3419,19 @@
         <v>219591</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>198896</v>
+        <v>197302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240172</v>
+        <v>240318</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5080666529377719</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.460184852045219</v>
+        <v>0.4564973784136013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5556859768646263</v>
+        <v>0.5560226309666404</v>
       </c>
     </row>
     <row r="17">
@@ -3474,19 +3474,19 @@
         <v>212618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192037</v>
+        <v>191891</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>233313</v>
+        <v>234907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4919333470622281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4443140231353739</v>
+        <v>0.4439773690333595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.539815147954781</v>
+        <v>0.5435026215863988</v>
       </c>
     </row>
     <row r="18">
@@ -3604,19 +3604,19 @@
         <v>280031</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256327</v>
+        <v>255969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>304072</v>
+        <v>302845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5054601655736704</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.462674773636186</v>
+        <v>0.4620270761807506</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5488545952521376</v>
+        <v>0.5466401546853973</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>273981</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>249940</v>
+        <v>251167</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>297685</v>
+        <v>298043</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4945398344263296</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4511454047478624</v>
+        <v>0.4533598453146028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.537325226363814</v>
+        <v>0.5379729238192494</v>
       </c>
     </row>
     <row r="21">
@@ -3789,19 +3789,19 @@
         <v>693853</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>655986</v>
+        <v>656621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>730729</v>
+        <v>734647</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5114492084658929</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4835367535525728</v>
+        <v>0.4840050364297091</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5386308120036624</v>
+        <v>0.541519288488383</v>
       </c>
     </row>
     <row r="23">
@@ -3844,19 +3844,19 @@
         <v>662788</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>625912</v>
+        <v>621994</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>700655</v>
+        <v>700020</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4885507915341071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4613691879963377</v>
+        <v>0.458480711511617</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5164632464474272</v>
+        <v>0.515994963570291</v>
       </c>
     </row>
     <row r="24">
@@ -3974,19 +3974,19 @@
         <v>823853</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>784055</v>
+        <v>784635</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>864969</v>
+        <v>866933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5139601036711284</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4891324441366443</v>
+        <v>0.4894942085114374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.539610097598172</v>
+        <v>0.5408355706683982</v>
       </c>
     </row>
     <row r="26">
@@ -4029,19 +4029,19 @@
         <v>779098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>737982</v>
+        <v>736018</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>818896</v>
+        <v>818316</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4860398963288716</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4603899024018281</v>
+        <v>0.4591644293316021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5108675558633559</v>
+        <v>0.5105057914885626</v>
       </c>
     </row>
     <row r="27">
@@ -4159,19 +4159,19 @@
         <v>3558309</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3462218</v>
+        <v>3478964</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3642068</v>
+        <v>3642454</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5094150731727236</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4956585206282267</v>
+        <v>0.4980558681132075</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5214062222709707</v>
+        <v>0.521461438052251</v>
       </c>
     </row>
     <row r="29">
@@ -4214,19 +4214,19 @@
         <v>3426779</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3343020</v>
+        <v>3342634</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3522870</v>
+        <v>3506124</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4905849268272763</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4785937777290297</v>
+        <v>0.478538561947749</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5043414793717736</v>
+        <v>0.5019441318867925</v>
       </c>
     </row>
     <row r="30">
@@ -4588,19 +4588,19 @@
         <v>288703</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>266914</v>
+        <v>264168</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>316640</v>
+        <v>315186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4956580999271352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4582501647709807</v>
+        <v>0.4535350662102942</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5436223758490165</v>
+        <v>0.5411255348979052</v>
       </c>
     </row>
     <row r="5">
@@ -4643,19 +4643,19 @@
         <v>293761</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265824</v>
+        <v>267278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>315550</v>
+        <v>318296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5043419000728648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4563776241509838</v>
+        <v>0.4588744651020949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5417498352290193</v>
+        <v>0.5464649337897058</v>
       </c>
     </row>
     <row r="6">
@@ -4773,19 +4773,19 @@
         <v>523084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>487683</v>
+        <v>488717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>555150</v>
+        <v>557972</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5099977825138059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4754829863402147</v>
+        <v>0.4764904966925155</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.541261705876585</v>
+        <v>0.5440128209937867</v>
       </c>
     </row>
     <row r="8">
@@ -4828,19 +4828,19 @@
         <v>502575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>470509</v>
+        <v>467687</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>537976</v>
+        <v>536942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4900022174861941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.458738294123415</v>
+        <v>0.4559871790062133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5245170136597853</v>
+        <v>0.5235095033074846</v>
       </c>
     </row>
     <row r="9">
@@ -4958,19 +4958,19 @@
         <v>336309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>312195</v>
+        <v>311767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>363681</v>
+        <v>360399</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5135476476426061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4767251928332318</v>
+        <v>0.4760722035470407</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5553444316713443</v>
+        <v>0.5503336626141682</v>
       </c>
     </row>
     <row r="11">
@@ -5013,19 +5013,19 @@
         <v>318565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>291193</v>
+        <v>294475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>342679</v>
+        <v>343107</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4864523523573939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4446555683286558</v>
+        <v>0.4496663373858321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5232748071667681</v>
+        <v>0.5239277964529594</v>
       </c>
     </row>
     <row r="12">
@@ -5143,19 +5143,19 @@
         <v>387283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>359589</v>
+        <v>358589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416363</v>
+        <v>415116</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5114355043264276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4748636552606434</v>
+        <v>0.4735425660304601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5498371926262562</v>
+        <v>0.5481914990387369</v>
       </c>
     </row>
     <row r="14">
@@ -5198,19 +5198,19 @@
         <v>369964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>340884</v>
+        <v>342131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>397658</v>
+        <v>398658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4885644956735724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4501628073737437</v>
+        <v>0.4518085009612632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5251363447393566</v>
+        <v>0.5264574339695399</v>
       </c>
     </row>
     <row r="15">
@@ -5328,19 +5328,19 @@
         <v>218587</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>198106</v>
+        <v>197513</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238636</v>
+        <v>238588</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5085689444717939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.460917731740567</v>
+        <v>0.4595368916757588</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5552158826964623</v>
+        <v>0.5551033119061447</v>
       </c>
     </row>
     <row r="17">
@@ -5383,19 +5383,19 @@
         <v>211221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>191172</v>
+        <v>191220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231702</v>
+        <v>232295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4914310555282062</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.444784117303538</v>
+        <v>0.4448966880938555</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.539082268259433</v>
+        <v>0.5404631083242412</v>
       </c>
     </row>
     <row r="18">
@@ -5513,19 +5513,19 @@
         <v>273115</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>250187</v>
+        <v>249717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>295372</v>
+        <v>297010</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.509316759779842</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4665601022653723</v>
+        <v>0.4656832732413146</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5508232304373035</v>
+        <v>0.5538771623469121</v>
       </c>
     </row>
     <row r="20">
@@ -5568,19 +5568,19 @@
         <v>263123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240866</v>
+        <v>239228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>286051</v>
+        <v>286521</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4906832402201579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4491767695626965</v>
+        <v>0.446122837653088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5334398977346277</v>
+        <v>0.5343167267586852</v>
       </c>
     </row>
     <row r="21">
@@ -5698,19 +5698,19 @@
         <v>691294</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>655110</v>
+        <v>651705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>727251</v>
+        <v>731114</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5128856890304023</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4860401830386558</v>
+        <v>0.483513631011575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5395632734868415</v>
+        <v>0.5424286690948531</v>
       </c>
     </row>
     <row r="23">
@@ -5753,19 +5753,19 @@
         <v>656558</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>620601</v>
+        <v>616738</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>692742</v>
+        <v>696147</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4871143109695977</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4604367265131586</v>
+        <v>0.4575713309051469</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5139598169613443</v>
+        <v>0.516486368988425</v>
       </c>
     </row>
     <row r="24">
@@ -5883,19 +5883,19 @@
         <v>826167</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>787165</v>
+        <v>785082</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>864890</v>
+        <v>868952</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5148259869873364</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4905221173337598</v>
+        <v>0.4892236574825222</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.538956352071683</v>
+        <v>0.5414876904708202</v>
       </c>
     </row>
     <row r="26">
@@ -5938,19 +5938,19 @@
         <v>778583</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>739860</v>
+        <v>735798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>817585</v>
+        <v>819668</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4851740130126636</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.461043647928317</v>
+        <v>0.4585123095291796</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5094778826662398</v>
+        <v>0.5107763425174776</v>
       </c>
     </row>
     <row r="27">
@@ -6068,19 +6068,19 @@
         <v>3544542</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3460482</v>
+        <v>3462388</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3629745</v>
+        <v>3621108</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5108224518013608</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4987081308172479</v>
+        <v>0.4989827848924082</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5231015572603268</v>
+        <v>0.5218568694383164</v>
       </c>
     </row>
     <row r="29">
@@ -6123,19 +6123,19 @@
         <v>3394350</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3309147</v>
+        <v>3317784</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3478410</v>
+        <v>3476504</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4891775481986392</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4768984427396732</v>
+        <v>0.4781431305616837</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5012918691827519</v>
+        <v>0.501017215107592</v>
       </c>
     </row>
     <row r="30">
@@ -6497,19 +6497,19 @@
         <v>316061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>293476</v>
+        <v>291307</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>339081</v>
+        <v>338138</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4978070466712613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4622346360370113</v>
+        <v>0.4588195991183944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5340649469594944</v>
+        <v>0.5325801295185442</v>
       </c>
     </row>
     <row r="5">
@@ -6552,19 +6552,19 @@
         <v>318845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>295825</v>
+        <v>296768</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341430</v>
+        <v>343599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5021929533287387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4659350530405055</v>
+        <v>0.4674198704814561</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5377653639629886</v>
+        <v>0.5411804008816056</v>
       </c>
     </row>
     <row r="6">
@@ -6682,19 +6682,19 @@
         <v>546494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>513968</v>
+        <v>514270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>582528</v>
+        <v>583841</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5073562026158623</v>
+        <v>0.5073562026158622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4771597292747338</v>
+        <v>0.4774401930775927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5408090876351084</v>
+        <v>0.5420283790608087</v>
       </c>
     </row>
     <row r="8">
@@ -6737,19 +6737,19 @@
         <v>530647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>494613</v>
+        <v>493300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>563173</v>
+        <v>562871</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4926437973841378</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4591909123648917</v>
+        <v>0.4579716209391914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5228402707252661</v>
+        <v>0.5225598069224071</v>
       </c>
     </row>
     <row r="9">
@@ -6867,19 +6867,19 @@
         <v>356381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>331104</v>
+        <v>334231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>379197</v>
+        <v>378727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5300337801194818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.492440066846447</v>
+        <v>0.4970907464878997</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.563966336515228</v>
+        <v>0.5632680469133999</v>
       </c>
     </row>
     <row r="11">
@@ -6922,19 +6922,19 @@
         <v>315994</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293178</v>
+        <v>293648</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>341271</v>
+        <v>338144</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4699662198805182</v>
+        <v>0.4699662198805181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4360336634847718</v>
+        <v>0.4367319530866001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5075599331535529</v>
+        <v>0.5029092535121001</v>
       </c>
     </row>
     <row r="12">
@@ -7052,19 +7052,19 @@
         <v>421962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>386048</v>
+        <v>388266</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>452722</v>
+        <v>453789</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5306978832391669</v>
+        <v>0.5306978832391668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4855293184891665</v>
+        <v>0.4883197423167503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5693854515890421</v>
+        <v>0.5707270305426606</v>
       </c>
     </row>
     <row r="14">
@@ -7107,19 +7107,19 @@
         <v>373145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342385</v>
+        <v>341318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409059</v>
+        <v>406841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4693021167608332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4306145484109581</v>
+        <v>0.4292729694573394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5144706815108336</v>
+        <v>0.5116802576832495</v>
       </c>
     </row>
     <row r="15">
@@ -7237,19 +7237,19 @@
         <v>228917</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>213082</v>
+        <v>211500</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>248147</v>
+        <v>245317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5267531265027122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.490314985731375</v>
+        <v>0.4866744202317143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5710012064373555</v>
+        <v>0.5644888360163387</v>
       </c>
     </row>
     <row r="17">
@@ -7292,19 +7292,19 @@
         <v>205665</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>186435</v>
+        <v>189265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>221500</v>
+        <v>223082</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4732468734972878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4289987935626443</v>
+        <v>0.4355111639836612</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.509685014268625</v>
+        <v>0.5133255797682857</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>263750</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>242623</v>
+        <v>243400</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>283209</v>
+        <v>283403</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4934918208324457</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.453962373660404</v>
+        <v>0.4554155546123901</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5298996027858505</v>
+        <v>0.5302633909364592</v>
       </c>
     </row>
     <row r="20">
@@ -7477,19 +7477,19 @@
         <v>270707</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>251248</v>
+        <v>251054</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>291834</v>
+        <v>291057</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5065081791675541</v>
+        <v>0.5065081791675543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.470100397214149</v>
+        <v>0.469736609063541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5460376263395961</v>
+        <v>0.54458444538761</v>
       </c>
     </row>
     <row r="21">
@@ -7607,19 +7607,19 @@
         <v>772057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>731632</v>
+        <v>734820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>813541</v>
+        <v>816957</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5175531896058431</v>
+        <v>0.5175531896058432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4904541527883717</v>
+        <v>0.4925908949125281</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5453625651879318</v>
+        <v>0.5476524469217833</v>
       </c>
     </row>
     <row r="23">
@@ -7662,19 +7662,19 @@
         <v>719687</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>678203</v>
+        <v>674787</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>760112</v>
+        <v>756924</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4824468103941568</v>
+        <v>0.4824468103941569</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4546374348120682</v>
+        <v>0.4523475530782164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.509545847211628</v>
+        <v>0.5074091050874718</v>
       </c>
     </row>
     <row r="24">
@@ -7792,19 +7792,19 @@
         <v>831331</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>789975</v>
+        <v>793792</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>870622</v>
+        <v>874448</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5102060529226862</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4848250371568963</v>
+        <v>0.4871674181312535</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5343198791009509</v>
+        <v>0.5366679913367646</v>
       </c>
     </row>
     <row r="26">
@@ -7847,19 +7847,19 @@
         <v>798072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>758781</v>
+        <v>754955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>839428</v>
+        <v>835611</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4897939470773138</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4656801208990491</v>
+        <v>0.4633320086632354</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5151749628431036</v>
+        <v>0.5128325818687466</v>
       </c>
     </row>
     <row r="27">
@@ -7977,19 +7977,19 @@
         <v>3736954</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3655039</v>
+        <v>3650448</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3832383</v>
+        <v>3818964</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5140440325123284</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5027759957451888</v>
+        <v>0.5021445456008113</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5271709225496298</v>
+        <v>0.5253250457050592</v>
       </c>
     </row>
     <row r="29">
@@ -8032,19 +8032,19 @@
         <v>3532762</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3437333</v>
+        <v>3450752</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3614677</v>
+        <v>3619268</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4859559674876716</v>
+        <v>0.4859559674876714</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4728290774503703</v>
+        <v>0.4746749542949408</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4972240042548114</v>
+        <v>0.4978554543991888</v>
       </c>
     </row>
     <row r="30">
